--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\automl-shiny\automl-shiny\static_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582CFCD-1950-40B8-B2EE-0488F28E5895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B7E02-ED7F-474D-85CC-E36184765243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="14597" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="327">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -864,12 +864,6 @@
     <t>Valeur catégorielle</t>
   </si>
   <si>
-    <t>Input value(s) to set to missing</t>
-  </si>
-  <si>
-    <t>Valeur(s) d'entrée à définir comme manquante</t>
-  </si>
-  <si>
     <t>transform_data_create_missing_values_input_range_ph</t>
   </si>
   <si>
@@ -1006,6 +1000,30 @@
   </si>
   <si>
     <t>Corrected outliers</t>
+  </si>
+  <si>
+    <t>handle_missing_values_log</t>
+  </si>
+  <si>
+    <t>Corrected missing values</t>
+  </si>
+  <si>
+    <t>Valeurs manquantes corrigées</t>
+  </si>
+  <si>
+    <t>Numeric values</t>
+  </si>
+  <si>
+    <t>Valeurs numériques</t>
+  </si>
+  <si>
+    <t>transform_data_create_missing_values_input_numeric</t>
+  </si>
+  <si>
+    <t>Categorical values</t>
+  </si>
+  <si>
+    <t>Valeurs catégorielles</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CJ3"/>
+  <dimension ref="A1:CL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU3" workbookViewId="0">
-      <selection activeCell="CI7" sqref="CI7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1378,12 +1396,12 @@
     <col min="8" max="8" width="9.23046875" style="1"/>
     <col min="9" max="9" width="19.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="75" width="9.23046875" style="1"/>
-    <col min="76" max="76" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="16384" width="9.23046875" style="1"/>
+    <col min="11" max="77" width="9.23046875" style="1"/>
+    <col min="78" max="78" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:90" ht="102" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1595,61 +1613,67 @@
         <v>248</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="CD1" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="CI1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CJ1" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:88" ht="204" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:90" ht="204" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1861,61 +1885,67 @@
         <v>249</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="BT2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>-99999999</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CC2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>-99999999</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="CD2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CE2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="CG2" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="CI2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CK2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CJ2" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:88" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="CL2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2127,58 +2157,64 @@
         <v>250</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="BT3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>-99999999</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BU3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>-99999999</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="CD3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CE3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="CG3" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="CI3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CJ3" s="1" t="s">
-        <v>320</v>
+      <c r="CL3" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2529,86 +2565,86 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
         <v>291</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
         <v>287</v>
       </c>
-      <c r="B25" t="s">
-        <v>289</v>
-      </c>
       <c r="C25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
         <v>292</v>
-      </c>
-      <c r="D25" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" t="s">
         <v>304</v>
       </c>
-      <c r="B28" t="s">
-        <v>306</v>
-      </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA6EB6D-6102-49C1-820F-344D7A5101E8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B7E02-ED7F-474D-85CC-E36184765243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E8C7F-5234-42D8-8A62-793D97313122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="330">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -1024,6 +1024,15 @@
   </si>
   <si>
     <t>Valeurs catégorielles</t>
+  </si>
+  <si>
+    <t>transform_data_plot_missing_data_out</t>
+  </si>
+  <si>
+    <t>Plot for missing data</t>
+  </si>
+  <si>
+    <t>Tracer les données manquantes</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CL3"/>
+  <dimension ref="A1:CM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BS1" sqref="BS1"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1401,7 +1410,7 @@
     <col min="79" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:91" ht="102" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1672,8 +1681,11 @@
       <c r="CL1" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:90" ht="204" x14ac:dyDescent="0.4">
+      <c r="CM1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" ht="204" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +1956,11 @@
       <c r="CL2" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:90" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="CM2" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2215,6 +2230,9 @@
       </c>
       <c r="CL3" s="1" t="s">
         <v>318</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2245,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E8C7F-5234-42D8-8A62-793D97313122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B3872-3ED3-4AC3-B02F-F84E2CAE6A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="24686" windowHeight="14597" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:CM3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CN1" sqref="CN1"/>
+      <selection activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B3872-3ED3-4AC3-B02F-F84E2CAE6A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17F217-D0F6-4152-823D-2B9A5D55A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="24686" windowHeight="14597" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>Tracer les données manquantes</t>
+  </si>
+  <si>
+    <t>db_connect_success</t>
+  </si>
+  <si>
+    <t>Database connection successful</t>
+  </si>
+  <si>
+    <t>Connexion à la base de données réussie</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CM3"/>
+  <dimension ref="A1:CN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CC2" sqref="CC2"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1410,7 +1419,7 @@
     <col min="79" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:92" ht="102" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1684,8 +1693,11 @@
       <c r="CM1" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:91" ht="204" x14ac:dyDescent="0.4">
+      <c r="CN1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" ht="204" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1959,8 +1971,11 @@
       <c r="CM2" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" spans="1:91" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="CN2" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2233,6 +2248,9 @@
       </c>
       <c r="CM3" s="1" t="s">
         <v>329</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a243c04221e17ca1/Documents/APHRC/RAUTOML/no-code-app/static_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17F217-D0F6-4152-823D-2B9A5D55A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BD17F217-D0F6-4152-823D-2B9A5D55A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B196CEDF-CF26-4E86-A548-E3D0D62B09A8}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="336">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>Connexion à la base de données réussie</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Taet lab</t>
+  </si>
+  <si>
+    <t>test lab</t>
   </si>
 </sst>
 </file>
@@ -1396,30 +1405,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CN3"/>
+  <dimension ref="A1:CO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CR2" sqref="CR2"/>
+    <sheetView tabSelected="1" topLeftCell="CB2" workbookViewId="0">
+      <selection activeCell="CQ3" sqref="CQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" style="1"/>
-    <col min="5" max="5" width="47.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.05859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.234375" style="1"/>
+    <col min="5" max="5" width="47.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.05859375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" style="1"/>
-    <col min="9" max="9" width="19.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="77" width="9.23046875" style="1"/>
-    <col min="78" max="78" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="9.23046875" style="1"/>
+    <col min="8" max="8" width="9.234375" style="1"/>
+    <col min="9" max="9" width="19.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="77" width="9.234375" style="1"/>
+    <col min="78" max="78" width="9.46875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:93" ht="86" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1696,8 +1705,11 @@
       <c r="CN1" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:92" ht="204" x14ac:dyDescent="0.4">
+      <c r="CO1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1974,8 +1986,11 @@
       <c r="CN2" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="3" spans="1:92" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="CO2" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2251,6 +2266,9 @@
       </c>
       <c r="CN3" s="1" t="s">
         <v>332</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2266,15 +2284,15 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="46.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.17578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -2358,7 +2376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>---Sélectionner le genre---</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -2417,7 +2435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -2473,7 +2491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -2529,7 +2547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -2571,7 +2589,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>285</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>285</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>302</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -2696,57 +2714,57 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2764,22 +2782,22 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>178</v>
       </c>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a243c04221e17ca1/Documents/APHRC/RAUTOML/no-code-app/static_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BD17F217-D0F6-4152-823D-2B9A5D55A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B196CEDF-CF26-4E86-A548-E3D0D62B09A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86196AAE-E5DA-4440-860A-E6B3C06E070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -1042,15 +1042,6 @@
   </si>
   <si>
     <t>Connexion à la base de données réussie</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Taet lab</t>
-  </si>
-  <si>
-    <t>test lab</t>
   </si>
 </sst>
 </file>
@@ -1405,30 +1396,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CO3"/>
+  <dimension ref="A1:CN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB2" workbookViewId="0">
-      <selection activeCell="CQ3" sqref="CQ3"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.234375" style="1"/>
-    <col min="5" max="5" width="47.8203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.05859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="47.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.07421875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.234375" style="1"/>
-    <col min="9" max="9" width="19.8203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="77" width="9.234375" style="1"/>
-    <col min="78" max="78" width="9.46875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="9.234375" style="1"/>
+    <col min="8" max="8" width="9.23046875" style="1"/>
+    <col min="9" max="9" width="19.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="77" width="9.23046875" style="1"/>
+    <col min="78" max="78" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="86" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:92" ht="102" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1705,11 +1696,8 @@
       <c r="CN1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" ht="200.7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:92" ht="204" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1986,11 +1974,8 @@
       <c r="CN2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CO2" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:93" ht="243.7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:92" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2266,9 +2251,6 @@
       </c>
       <c r="CN3" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2284,15 +2266,15 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.17578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2320,7 +2302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2348,7 +2330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -2376,7 +2358,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2390,7 +2372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2404,7 +2386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2421,7 +2403,7 @@
         <v>---Sélectionner le genre---</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -2435,7 +2417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2449,7 +2431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2463,7 +2445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -2477,7 +2459,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -2491,7 +2473,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -2505,7 +2487,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -2519,7 +2501,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2533,7 +2515,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -2547,7 +2529,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -2561,7 +2543,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -2575,7 +2557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -2589,7 +2571,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -2603,7 +2585,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -2617,7 +2599,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -2631,7 +2613,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>285</v>
       </c>
@@ -2645,7 +2627,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>285</v>
       </c>
@@ -2659,7 +2641,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -2673,7 +2655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>302</v>
       </c>
@@ -2687,7 +2669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -2714,57 +2696,57 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2782,22 +2764,22 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>178</v>
       </c>

--- a/static_files/labelling_file.xlsx
+++ b/static_files/labelling_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\no-code-app\static_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - IRESSEF\Documents\DSWB\Project\Training\Workshop_2025\Github\workshop_github\no-code-app\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86196AAE-E5DA-4440-860A-E6B3C06E070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E7E23-1B88-474A-B963-848390CD1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{43208FD5-7BAA-4932-9269-4D84D13319F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ui_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="336">
   <si>
     <t>upload_file_local</t>
   </si>
@@ -1042,14 +1042,31 @@
   </si>
   <si>
     <t>Connexion à la base de données réussie</t>
+  </si>
+  <si>
+    <t>automl_title</t>
+  </si>
+  <si>
+    <t>Automl with Pycaret</t>
+  </si>
+  <si>
+    <t>Automl avec Pycaret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1065,7 +1082,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1073,13 +1090,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1396,30 +1434,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C65CCAF-013C-4E8E-8632-543B46C7B55A}">
-  <dimension ref="A1:CN3"/>
+  <dimension ref="A1:CO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CR2" sqref="CR2"/>
+    <sheetView tabSelected="1" topLeftCell="BX3" workbookViewId="0">
+      <selection activeCell="CO3" sqref="CO3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" style="1"/>
-    <col min="5" max="5" width="47.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1"/>
+    <col min="5" max="5" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" style="1"/>
-    <col min="9" max="9" width="19.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="77" width="9.23046875" style="1"/>
-    <col min="78" max="78" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="9.23046875" style="1"/>
+    <col min="8" max="8" width="9.26953125" style="1"/>
+    <col min="9" max="9" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="77" width="9.26953125" style="1"/>
+    <col min="78" max="78" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:93" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1696,8 +1734,11 @@
       <c r="CN1" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:92" ht="204" x14ac:dyDescent="0.4">
+      <c r="CO1" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1974,8 +2015,11 @@
       <c r="CN2" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="3" spans="1:92" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="CO2" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2251,6 +2295,9 @@
       </c>
       <c r="CN3" s="1" t="s">
         <v>332</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2266,15 +2313,15 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2330,7 +2377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -2358,7 +2405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2372,7 +2419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2386,7 +2433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2403,7 +2450,7 @@
         <v>---Sélectionner le genre---</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -2417,7 +2464,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2431,7 +2478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2445,7 +2492,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -2459,7 +2506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -2473,7 +2520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -2487,7 +2534,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -2501,7 +2548,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2515,7 +2562,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -2529,7 +2576,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -2543,7 +2590,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -2557,7 +2604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -2571,7 +2618,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -2585,7 +2632,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -2599,7 +2646,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -2613,7 +2660,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>285</v>
       </c>
@@ -2627,7 +2674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>285</v>
       </c>
@@ -2641,7 +2688,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -2655,7 +2702,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>302</v>
       </c>
@@ -2669,7 +2716,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -2696,57 +2743,57 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2764,22 +2811,22 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>178</v>
       </c>
